--- a/my_rank/中小板指.xlsx
+++ b/my_rank/中小板指.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4602</v>
+        <v>8394</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7018239492466296</v>
+        <v>0.5223768333960135</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3011</v>
+        <v>4227</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07097541633624108</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5354</v>
+        <v>11817</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9514855208725085</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4105</v>
+        <v>8184</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5047581284694687</v>
+        <v>0.4960511470477623</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3857</v>
+        <v>6786</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4064234734337827</v>
+        <v>0.3207972922151185</v>
       </c>
       <c r="E6" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3666</v>
+        <v>6818</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3306899286280729</v>
+        <v>0.3248088253729472</v>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5058</v>
+        <v>9942</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8826328310864393</v>
+        <v>0.7164347499059797</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4323</v>
+        <v>8728</v>
       </c>
       <c r="D9" t="n">
-        <v>0.591197462331483</v>
+        <v>0.5642472107308512</v>
       </c>
       <c r="E9" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3561</v>
+        <v>5446</v>
       </c>
       <c r="D10" t="n">
-        <v>0.289056304520222</v>
+        <v>0.1528143412310392</v>
       </c>
       <c r="E10" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3978</v>
+        <v>7327</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4544012688342585</v>
+        <v>0.3886172746646609</v>
       </c>
       <c r="E11" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4128</v>
+        <v>8239</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5138778747026169</v>
+        <v>0.5029459696627805</v>
       </c>
       <c r="E12" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4140</v>
+        <v>8273</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5186360031720857</v>
+        <v>0.5072082236429736</v>
       </c>
       <c r="E13" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -694,13 +694,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4933</v>
+        <v>10373</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8330689928628073</v>
+        <v>0.7704650871254858</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4669</v>
+        <v>8458</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7283901665344964</v>
+        <v>0.530399899711671</v>
       </c>
       <c r="E15" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2832</v>
+        <v>4719</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.06167732230161715</v>
       </c>
       <c r="E16" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4015</v>
+        <v>7040</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4690721649484536</v>
+        <v>0.3526388366553842</v>
       </c>
       <c r="E17" t="n">
         <v>62</v>
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4093</v>
+        <v>6272</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>0.256362040867494</v>
       </c>
       <c r="E18" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4290</v>
+        <v>7600</v>
       </c>
       <c r="D19" t="n">
-        <v>0.578112609040444</v>
+        <v>0.4228406669173875</v>
       </c>
       <c r="E19" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3789</v>
+        <v>5421</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3794607454401269</v>
+        <v>0.1496803309514855</v>
       </c>
       <c r="E20" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3457</v>
+        <v>5546</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2478191911181602</v>
+        <v>0.1653503823492541</v>
       </c>
       <c r="E21" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4812</v>
+        <v>9281</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7850911974623315</v>
+        <v>0.6335715181145795</v>
       </c>
       <c r="E22" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3398</v>
+        <v>5980</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2244250594766059</v>
+        <v>0.2197568008023066</v>
       </c>
       <c r="E23" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3423</v>
+        <v>6197</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2343378271213323</v>
+        <v>0.2469600100288329</v>
       </c>
       <c r="E24" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4327</v>
+        <v>8210</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5927835051546392</v>
+        <v>0.4993105177384982</v>
       </c>
       <c r="E25" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4156</v>
+        <v>7616</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5249801744647106</v>
+        <v>0.4248464334963019</v>
       </c>
       <c r="E26" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3501</v>
+        <v>5029</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2652656621728787</v>
+        <v>0.1005390497680832</v>
       </c>
       <c r="E27" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4385</v>
+        <v>7919</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6157811260904045</v>
+        <v>0.4628306380844929</v>
       </c>
       <c r="E28" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4420</v>
+        <v>7840</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6296590007930214</v>
+        <v>0.4529271656011032</v>
       </c>
       <c r="E29" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4692</v>
+        <v>9208</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7375099127676448</v>
+        <v>0.6244202080982826</v>
       </c>
       <c r="E30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5042</v>
+        <v>10695</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8762886597938144</v>
+        <v>0.8108311395261376</v>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4757</v>
+        <v>9624</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7632831086439333</v>
+        <v>0.6765701391500564</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5039</v>
+        <v>10888</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8750991276764473</v>
+        <v>0.8350256988842923</v>
       </c>
       <c r="E33" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3994</v>
+        <v>6032</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4607454401268834</v>
+        <v>0.2262755421837783</v>
       </c>
       <c r="E34" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4939</v>
+        <v>11028</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8354480570975417</v>
+        <v>0.8525761564497931</v>
       </c>
       <c r="E35" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5300</v>
+        <v>11248</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9785884218873909</v>
+        <v>0.8801554469098659</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4821</v>
+        <v>9869</v>
       </c>
       <c r="D37" t="n">
-        <v>0.788659793814433</v>
+        <v>0.7072834398896828</v>
       </c>
       <c r="E37" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4559</v>
+        <v>7698</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6847739888977002</v>
+        <v>0.4351259872132381</v>
       </c>
       <c r="E38" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -1169,13 +1169,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4400</v>
+        <v>9152</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6217287866772403</v>
+        <v>0.6174000250720822</v>
       </c>
       <c r="E39" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -1188,13 +1188,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3339</v>
+        <v>5809</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2010309278350516</v>
+        <v>0.1983201704901592</v>
       </c>
       <c r="E40" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4964</v>
+        <v>10377</v>
       </c>
       <c r="D41" t="n">
-        <v>0.845360824742268</v>
+        <v>0.7709665287702143</v>
       </c>
       <c r="E41" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4723</v>
+        <v>8559</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7498017446471055</v>
+        <v>0.5430613012410681</v>
       </c>
       <c r="E42" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4312</v>
+        <v>7279</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5868358445678034</v>
+        <v>0.3825999749279178</v>
       </c>
       <c r="E43" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44">
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3466</v>
+        <v>5466</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2513877874702617</v>
+        <v>0.1553215494546822</v>
       </c>
       <c r="E44" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3983</v>
+        <v>5649</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4563838223632038</v>
+        <v>0.1782625047010154</v>
       </c>
       <c r="E45" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4708</v>
+        <v>9230</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7438540840602696</v>
+        <v>0.6271781371442898</v>
       </c>
       <c r="E46" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2894</v>
+        <v>4414</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02458366375892149</v>
+        <v>0.0234423968910618</v>
       </c>
       <c r="E47" t="n">
         <v>99</v>
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4627</v>
+        <v>7761</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7117367168913561</v>
+        <v>0.4430236931177134</v>
       </c>
       <c r="E48" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49">
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4599</v>
+        <v>9708</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7006344171292624</v>
+        <v>0.6871004136893569</v>
       </c>
       <c r="E49" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3637</v>
+        <v>5927</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3191911181601903</v>
+        <v>0.2131126990096527</v>
       </c>
       <c r="E50" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
@@ -1397,13 +1397,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4923</v>
+        <v>9891</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8291038858049168</v>
+        <v>0.7100413689356901</v>
       </c>
       <c r="E51" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5330</v>
+        <v>12204</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9904837430610627</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2988</v>
+        <v>5346</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06185567010309279</v>
+        <v>0.1402783001128244</v>
       </c>
       <c r="E53" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4223</v>
+        <v>6945</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5515463917525774</v>
+        <v>0.3407295975930801</v>
       </c>
       <c r="E54" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55">
@@ -1473,13 +1473,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4380</v>
+        <v>8019</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6137985725614592</v>
+        <v>0.4753666792027078</v>
       </c>
       <c r="E55" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56">
@@ -1492,13 +1492,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3995</v>
+        <v>6699</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4611419508326725</v>
+        <v>0.3098909364422715</v>
       </c>
       <c r="E56" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3063</v>
+        <v>5527</v>
       </c>
       <c r="D57" t="n">
-        <v>0.091593973037272</v>
+        <v>0.1629685345367933</v>
       </c>
       <c r="E57" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
@@ -1530,13 +1530,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5053</v>
+        <v>10993</v>
       </c>
       <c r="D58" t="n">
-        <v>0.880650277557494</v>
+        <v>0.848188542058418</v>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -1549,13 +1549,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3320</v>
+        <v>5435</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1934972244250595</v>
+        <v>0.1514353767080356</v>
       </c>
       <c r="E59" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
@@ -1568,13 +1568,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4648</v>
+        <v>9912</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7200634417129262</v>
+        <v>0.7126739375705152</v>
       </c>
       <c r="E60" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5209</v>
+        <v>11214</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9425059476605868</v>
+        <v>0.8758931929296728</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4854</v>
+        <v>9852</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8017446471054719</v>
+        <v>0.7051523128995864</v>
       </c>
       <c r="E62" t="n">
         <v>25</v>
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5080</v>
+        <v>10518</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8913560666137986</v>
+        <v>0.7886423467468974</v>
       </c>
       <c r="E63" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -1644,13 +1644,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4351</v>
+        <v>8380</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6022997620935765</v>
+        <v>0.5206217876394634</v>
       </c>
       <c r="E64" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3489</v>
+        <v>5765</v>
       </c>
       <c r="D65" t="n">
-        <v>0.26050753370341</v>
+        <v>0.1928043123981447</v>
       </c>
       <c r="E65" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66">
@@ -1682,13 +1682,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4651</v>
+        <v>8156</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7212529738302934</v>
+        <v>0.4925410555346622</v>
       </c>
       <c r="E66" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67">
@@ -1701,13 +1701,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5198</v>
+        <v>11548</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9381443298969072</v>
+        <v>0.9177635702645105</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3960</v>
+        <v>5604</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4472640761300555</v>
+        <v>0.1726212861978187</v>
       </c>
       <c r="E68" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69">
@@ -1739,13 +1739,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5186</v>
+        <v>11428</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9333862014274386</v>
+        <v>0.9027203209226526</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3199</v>
+        <v>5204</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1455194290245837</v>
+        <v>0.1224771217249593</v>
       </c>
       <c r="E70" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71">
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3944</v>
+        <v>6743</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4409199048374306</v>
+        <v>0.3154067945342861</v>
       </c>
       <c r="E71" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4765</v>
+        <v>8887</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7664551942902459</v>
+        <v>0.5841795161088128</v>
       </c>
       <c r="E72" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73">
@@ -1815,13 +1815,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3999</v>
+        <v>7449</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4627279936558287</v>
+        <v>0.403911244828883</v>
       </c>
       <c r="E73" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74">
@@ -1834,10 +1834,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3277</v>
+        <v>5357</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1764472640761301</v>
+        <v>0.141657264635828</v>
       </c>
       <c r="E74" t="n">
         <v>92</v>
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4188</v>
+        <v>7444</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5376685170499603</v>
+        <v>0.4032844427729723</v>
       </c>
       <c r="E75" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3549</v>
+        <v>6366</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2842981760507534</v>
+        <v>0.268145919518616</v>
       </c>
       <c r="E76" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5156</v>
+        <v>11149</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9214908802537668</v>
+        <v>0.8677447662028331</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -1910,13 +1910,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3920</v>
+        <v>6791</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4314036478984933</v>
+        <v>0.3214240942710292</v>
       </c>
       <c r="E78" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79">
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3654</v>
+        <v>6118</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3259318001586043</v>
+        <v>0.2370565375454431</v>
       </c>
       <c r="E79" t="n">
         <v>77</v>
@@ -1948,13 +1948,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3263</v>
+        <v>5083</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1708961141950833</v>
+        <v>0.1073085119719193</v>
       </c>
       <c r="E80" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81">
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4674</v>
+        <v>8041</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7303727200634417</v>
+        <v>0.4781246082487151</v>
       </c>
       <c r="E81" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82">
@@ -1986,13 +1986,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4554</v>
+        <v>8706</v>
       </c>
       <c r="D82" t="n">
-        <v>0.682791435368755</v>
+        <v>0.5614892816848439</v>
       </c>
       <c r="E82" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5125</v>
+        <v>9473</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9091990483743061</v>
+        <v>0.6576407170615519</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4931</v>
+        <v>8013</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8322759714512292</v>
+        <v>0.4746145167356149</v>
       </c>
       <c r="E84" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85">
@@ -2043,13 +2043,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3617</v>
+        <v>5760</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3112609040444092</v>
+        <v>0.1921775103422339</v>
       </c>
       <c r="E85" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5210</v>
+        <v>11296</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9429024583663759</v>
+        <v>0.8861727466466091</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3020</v>
+        <v>5212</v>
       </c>
       <c r="D87" t="n">
-        <v>0.07454401268834258</v>
+        <v>0.1234800050144164</v>
       </c>
       <c r="E87" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88">
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3700</v>
+        <v>6604</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3441712926249009</v>
+        <v>0.2979816973799674</v>
       </c>
       <c r="E88" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89">
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5036</v>
+        <v>10400</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8739095955590801</v>
+        <v>0.7738498182274038</v>
       </c>
       <c r="E89" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4616</v>
+        <v>8935</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7073750991276765</v>
+        <v>0.5901968158455559</v>
       </c>
       <c r="E90" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3623</v>
+        <v>6425</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3136399682791435</v>
+        <v>0.2755421837783628</v>
       </c>
       <c r="E91" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92">
@@ -2176,13 +2176,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3706</v>
+        <v>6931</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3465503568596352</v>
+        <v>0.33897455183653</v>
       </c>
       <c r="E92" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93">
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3603</v>
+        <v>6491</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3057097541633624</v>
+        <v>0.2838159709163846</v>
       </c>
       <c r="E93" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94">
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5071</v>
+        <v>10257</v>
       </c>
       <c r="D94" t="n">
-        <v>0.887787470261697</v>
+        <v>0.7559232794283566</v>
       </c>
       <c r="E94" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4782</v>
+        <v>9416</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7731958762886598</v>
+        <v>0.6504951736241695</v>
       </c>
       <c r="E95" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4967</v>
+        <v>10613</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8465503568596352</v>
+        <v>0.8005515858092015</v>
       </c>
       <c r="E96" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5078</v>
+        <v>10844</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8905630452022204</v>
+        <v>0.8295098407922779</v>
       </c>
       <c r="E97" t="n">
         <v>12</v>
@@ -2290,13 +2290,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5113</v>
+        <v>10518</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9044409199048374</v>
+        <v>0.7886423467468974</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -2309,13 +2309,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3969</v>
+        <v>6406</v>
       </c>
       <c r="D99" t="n">
-        <v>0.450832672482157</v>
+        <v>0.2731603359659019</v>
       </c>
       <c r="E99" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100">
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4535</v>
+        <v>8114</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6752577319587629</v>
+        <v>0.4872759182650119</v>
       </c>
       <c r="E100" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101">
@@ -2347,13 +2347,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4539</v>
+        <v>9112</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6768437747819191</v>
+        <v>0.6123856086247963</v>
       </c>
       <c r="E101" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
